--- a/PREGAME/1. ELICITACIÓN/1.6 Backlog/G1_Backlog_V1.0.0.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.6 Backlog/G1_Backlog_V1.0.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uespe-my.sharepoint.com/personal/jlobando2_espe_edu_ec/Documents/Escritorio/ESPE/4 SEMESTRE/Mod Procs Desarrollo de software/NahirCarrera_14765_G1_MPSW/PREGAME/1. ELICITACIÓN/1.6 Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96A1C70-E0C1-4D42-80D2-14CF7DFD21B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{C96A1C70-E0C1-4D42-80D2-14CF7DFD21B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B1AB739-27ED-4BEB-A37E-BFE24FBA46E6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,13 +451,13 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-1</c:v>
@@ -501,16 +501,16 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -726,10 +726,6 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2089,8 +2085,8 @@
   </sheetPr>
   <dimension ref="B1:I1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3401,7 +3397,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3558,16 +3554,16 @@
         <v>1</v>
       </c>
       <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
       <c r="G8" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" ref="I8:I12" si="1">SUM(D8:H8)</f>
@@ -3698,7 +3694,7 @@
       </c>
       <c r="E15" s="3">
         <f>D15-SUM(E4:E12)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <f>E15-SUM(F4:F12)</f>
@@ -3706,7 +3702,7 @@
       </c>
       <c r="G15" s="3">
         <f>F15-SUM(G4:G12)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="3">
         <f>G15-SUM(H4:H12)</f>
@@ -3727,19 +3723,19 @@
       </c>
       <c r="E16" s="3">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/PREGAME/1. ELICITACIÓN/1.6 Backlog/G1_Backlog_V1.0.0.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.6 Backlog/G1_Backlog_V1.0.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uespe-my.sharepoint.com/personal/jlobando2_espe_edu_ec/Documents/Escritorio/ESPE/4 SEMESTRE/Mod Procs Desarrollo de software/NahirCarrera_14765_G1_MPSW/PREGAME/1. ELICITACIÓN/1.6 Backlog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\QUINTO SEMESTRE MAYO 23 - SEPTIEMBRE 23\NahirCarrera_14765_G1_MPSW\PREGAME\1. ELICITACIÓN\1.6 Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{C96A1C70-E0C1-4D42-80D2-14CF7DFD21B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B1AB739-27ED-4BEB-A37E-BFE24FBA46E6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7283AFA-6A49-49F1-B1EB-DA82A06BE872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="umbVZyOcx52yre52oR6StKY4AhwVaEfQZSgxcWGFbfY="/>
     </ext>
@@ -41,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <t>t</t>
   </si>
@@ -219,13 +208,37 @@
   </si>
   <si>
     <t>Finalizado</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Conclusión: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">En general las actividades del Sprint se desarrollaron dentro del tiempo estimado, es decir, el equipo de trabajo se ha desenvueto productivamente ya que de un total de 18 horas estimadas finalizamos las actividades con 2,5 horas de diferencia
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -271,6 +284,21 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -325,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,7 +368,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -360,6 +387,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,19 +487,19 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -498,19 +537,19 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -696,10 +735,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>573405</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -2085,8 +2124,8 @@
   </sheetPr>
   <dimension ref="B1:I1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2127,26 +2166,26 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2215,7 +2254,7 @@
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="3">
@@ -2257,26 +2296,26 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2303,7 +2342,7 @@
       <c r="C14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="3"/>
@@ -2318,7 +2357,7 @@
       <c r="C15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H15" s="3"/>
@@ -2333,7 +2372,7 @@
       <c r="C16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="11" t="s">
         <v>37</v>
       </c>
       <c r="H16" s="3"/>
@@ -2387,7 +2426,7 @@
     <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I20">
@@ -3396,21 +3435,21 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="18" customWidth="1"/>
     <col min="3" max="26" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
@@ -3434,14 +3473,14 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3453,22 +3492,22 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I4" s="7">
         <f>SUM(D4:H4)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3477,32 +3516,32 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" ref="I5:I6" si="0">SUM(D5:H5)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3512,15 +3551,15 @@
       </c>
       <c r="I6" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>2</v>
       </c>
       <c r="D7" s="6">
@@ -3544,10 +3583,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>4</v>
       </c>
       <c r="D8" s="6">
@@ -3571,10 +3610,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>3</v>
       </c>
       <c r="D9" s="6">
@@ -3598,10 +3637,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>3</v>
       </c>
       <c r="D10" s="6">
@@ -3625,10 +3664,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>2</v>
       </c>
       <c r="D11" s="6">
@@ -3640,7 +3679,7 @@
       <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <v>0</v>
       </c>
       <c r="H11" s="6">
@@ -3652,10 +3691,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>1</v>
       </c>
       <c r="D12" s="6">
@@ -3681,7 +3720,7 @@
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="20" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="3">
@@ -3690,27 +3729,27 @@
       </c>
       <c r="D15" s="3">
         <f>C15-SUM(D4:D12)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E15" s="3">
         <f>D15-SUM(E4:E12)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F15" s="3">
         <f>E15-SUM(F4:F12)</f>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="G15" s="3">
         <f>F15-SUM(G4:G12)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" s="3">
         <f>G15-SUM(H4:H12)</f>
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="3">
@@ -3719,7 +3758,7 @@
       </c>
       <c r="D16" s="3">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="2"/>
@@ -3727,33 +3766,59 @@
       </c>
       <c r="F16" s="3">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4723,6 +4788,9 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B20:D25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/PREGAME/1. ELICITACIÓN/1.6 Backlog/G1_Backlog_V1.0.0.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.6 Backlog/G1_Backlog_V1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\QUINTO SEMESTRE MAYO 23 - SEPTIEMBRE 23\NahirCarrera_14765_G1_MPSW\PREGAME\1. ELICITACIÓN\1.6 Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7283AFA-6A49-49F1-B1EB-DA82A06BE872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61C898B-CA14-4ED4-BEDB-83FADCD2CDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -229,7 +229,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">En general las actividades del Sprint se desarrollaron dentro del tiempo estimado, es decir, el equipo de trabajo se ha desenvueto productivamente ya que de un total de 18 horas estimadas finalizamos las actividades con 2,5 horas de diferencia
+      <t xml:space="preserve">En general las actividades del Sprint se desarrollaron dentro del tiempo estimado, es decir, el equipo de trabajo se ha desenvuelto productivamente ya que de un total de 18 horas estimadas finalizamos las actividades con 0,5 horas de diferencia, sin embargo, se observa que el ritmo de trabajo es muy variante entre los días trabajados.
 </t>
     </r>
   </si>
@@ -534,7 +534,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
@@ -735,10 +735,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>573405</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>550545</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -3435,8 +3435,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3753,15 +3753,15 @@
         <v>57</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" ref="C16:H16" si="2">SUM(C4:C12)</f>
-        <v>18</v>
+        <f>SUM(D16:H16)</f>
+        <v>17.5</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(D4:D12)</f>
         <v>5</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C16:H16" si="2">SUM(E4:E12)</f>
         <v>2</v>
       </c>
       <c r="F16" s="3">
